--- a/算法做题记录.xlsx
+++ b/算法做题记录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\learn\leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA7830-F897-4E99-805F-E4F4C1D5FDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="算法" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="975">
   <si>
     <t>做题记录</t>
   </si>
@@ -120,7 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -204,7 +210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -407,7 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1463,7 +1469,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -1733,7 +1739,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -2000,7 +2006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -2213,7 +2219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -2243,7 +2249,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅ 2020-09</t>
     </r>
@@ -2261,7 +2267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2479,7 +2485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -2686,7 +2692,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -2746,7 +2752,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -2956,7 +2962,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -2965,7 +2971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2021-04</t>
     </r>
@@ -2984,7 +2990,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3017,7 +3023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -3026,7 +3032,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2021-05</t>
     </r>
@@ -3045,7 +3051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3153,7 +3159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>✅</t>
     </r>
@@ -3162,7 +3168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2021-07</t>
     </r>
@@ -3181,7 +3187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3259,18 +3265,56 @@
   <si>
     <t>obsidian://open?vault=%E7%9F%A5%E8%AF%86%E5%BA%93&amp;file=%E7%BC%96%E7%A8%8B%2F%E6%95%B0%E6%8D%AE%E7%BB%93%E6%9E%84%E4%B8%8E%E7%AE%97%E6%B3%95%2F%E5%8A%9B%E6%89%A3%2F%E6%AF%8F%E6%97%A5%E4%B8%80%E9%A2%98%2F2020%E5%B9%B408%E6%9C%88%E6%AF%8F%E6%97%A5%E4%B8%80%E9%A2%98%2F202008300924%20557.%20%E5%8F%8D%E8%BD%AC%E5%AD%97%E7%AC%A6%E4%B8%B2%E4%B8%AD%E7%9A%84%E5%8D%95%E8%AF%8D%20III</t>
   </si>
+  <si>
+    <t>31. 下一个排列</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/next-permutation/</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>xo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、双指针</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsidian://open?vault=%E7%9F%A5%E8%AF%86%E5%BA%93&amp;file=%E7%BC%96%E7%A8%8B%2F%E6%95%B0%E6%8D%AE%E7%BB%93%E6%9E%84%E4%B8%8E%E7%AE%97%E6%B3%95%2F%E5%8A%9B%E6%89%A3%2F202305181159%20%E5%8A%9B%E6%89%A3%2031.%20%E4%B8%8B%E4%B8%80%E4%B8%AA%E6%8E%92%E5%88%97</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端Offer收割机</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>406. 根据身高重建队列</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/queue-reconstruction-by-height/description/</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsidian://open?vault=%E7%9F%A5%E8%AF%86%E5%BA%93&amp;file=%E7%BC%96%E7%A8%8B%2F%E6%95%B0%E6%8D%AE%E7%BB%93%E6%9E%84%E4%B8%8E%E7%AE%97%E6%B3%95%2F%E5%8A%9B%E6%89%A3%2F202310251133%20%E5%8A%9B%E6%89%A3%20406.%20%E6%A0%B9%E6%8D%AE%E8%BA%AB%E9%AB%98%E9%87%8D%E5%BB%BA%E9%98%9F%E5%88%97</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心、树状数组、线段树、数组、排序</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3341,106 +3385,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3452,10 +3397,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3486,170 +3446,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3752,178 +3550,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3932,63 +3569,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3996,6 +3585,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4005,71 +3604,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="18" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="25" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="7">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="好" xfId="5" builtinId="26"/>
+    <cellStyle name="计算" xfId="4" builtinId="22"/>
+    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
+    <cellStyle name="适中" xfId="6" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4327,36 +3879,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.10833333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="43.775" customWidth="1"/>
-    <col min="4" max="4" width="16.775" customWidth="1"/>
-    <col min="5" max="5" width="5.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="30.775" customWidth="1"/>
-    <col min="7" max="8" width="16.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="30.225" customWidth="1"/>
-    <col min="10" max="10" width="20.225" customWidth="1"/>
-    <col min="11" max="11" width="14.4416666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.1083333333333" customWidth="1"/>
-    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="9.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="7" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4391,7 +3943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4429,7 +3981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4467,7 +4019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:13">
+    <row r="4" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4505,7 +4057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:13">
+    <row r="5" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4543,7 +4095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4575,7 +4127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:10">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4607,7 +4159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:14">
+    <row r="8" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4638,13 +4190,13 @@
       <c r="J8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4675,17 +4227,17 @@
       <c r="J9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4716,17 +4268,17 @@
       <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4757,17 +4309,17 @@
       <c r="J11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:14">
+    <row r="12" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -4798,17 +4350,17 @@
       <c r="J12" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4839,17 +4391,17 @@
       <c r="J13" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4880,17 +4432,17 @@
       <c r="J14" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4921,9 +4473,9 @@
       <c r="J15" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:10">
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4955,7 +4507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -4987,7 +4539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -5019,7 +4571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5051,7 +4603,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:10">
+    <row r="20" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5083,7 +4635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5115,7 +4667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -5147,7 +4699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5179,7 +4731,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:10">
+    <row r="24" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -5211,7 +4763,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +4795,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +4827,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5306,11 +4858,11 @@
       <c r="J27" t="s">
         <v>142</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -5341,11 +4893,11 @@
       <c r="J28" t="s">
         <v>142</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:10">
+    <row r="29" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -5377,7 +4929,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5409,7 +4961,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -5441,7 +4993,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -5469,11 +5021,11 @@
       <c r="J32" t="s">
         <v>164</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -5502,7 +5054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5534,7 +5086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5566,7 +5118,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -5598,7 +5150,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -5630,7 +5182,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5662,7 +5214,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -5694,7 +5246,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +5278,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -5758,7 +5310,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -5790,7 +5342,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:10">
+    <row r="43" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -5822,7 +5374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:10">
+    <row r="44" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -5854,7 +5406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:10">
+    <row r="45" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -5886,7 +5438,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:10">
+    <row r="46" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -5918,7 +5470,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:11">
+    <row r="47" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -5949,11 +5501,11 @@
       <c r="J47" t="s">
         <v>117</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:11">
+    <row r="48" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5984,11 +5536,11 @@
       <c r="J48" t="s">
         <v>117</v>
       </c>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:10">
+    <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -6020,7 +5572,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -6051,11 +5603,11 @@
       <c r="J50" t="s">
         <v>248</v>
       </c>
-      <c r="K50" s="24" t="s">
+      <c r="K50" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:10">
+    <row r="51" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -6087,7 +5639,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -6119,7 +5671,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -6151,7 +5703,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -6182,11 +5734,11 @@
       <c r="J54" t="s">
         <v>257</v>
       </c>
-      <c r="K54" s="24" t="s">
+      <c r="K54" s="21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
@@ -6218,7 +5770,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:10">
+    <row r="56" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -6250,7 +5802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -6282,7 +5834,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -6313,11 +5865,11 @@
       <c r="J58" t="s">
         <v>283</v>
       </c>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -6349,7 +5901,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:10">
+    <row r="60" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -6381,7 +5933,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -6413,7 +5965,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -6445,7 +5997,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -6477,7 +6029,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>307</v>
       </c>
@@ -6509,7 +6061,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -6541,7 +6093,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -6573,7 +6125,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>307</v>
       </c>
@@ -6605,7 +6157,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>307</v>
       </c>
@@ -6637,7 +6189,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -6669,7 +6221,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>307</v>
       </c>
@@ -6701,7 +6253,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -6732,11 +6284,11 @@
       <c r="J71" t="s">
         <v>342</v>
       </c>
-      <c r="K71" s="24" t="s">
+      <c r="K71" s="21" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:11">
+    <row r="72" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -6767,11 +6319,11 @@
       <c r="J72" t="s">
         <v>117</v>
       </c>
-      <c r="K72" s="24" t="s">
+      <c r="K72" s="21" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:10">
+    <row r="73" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -6803,7 +6355,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:10">
+    <row r="74" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -6835,7 +6387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -6867,7 +6419,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>358</v>
       </c>
@@ -6899,7 +6451,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:10">
+    <row r="77" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -6931,7 +6483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:10">
+    <row r="78" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -6963,7 +6515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:10">
+    <row r="79" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -6995,7 +6547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -7027,7 +6579,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -7058,11 +6610,11 @@
       <c r="J81" t="s">
         <v>342</v>
       </c>
-      <c r="K81" s="24" t="s">
+      <c r="K81" s="21" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -7094,7 +6646,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>385</v>
       </c>
@@ -7125,11 +6677,11 @@
       <c r="J83" t="s">
         <v>342</v>
       </c>
-      <c r="K83" s="24" t="s">
+      <c r="K83" s="21" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -7161,7 +6713,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -7193,7 +6745,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:10">
+    <row r="86" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7225,7 +6777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:10">
+    <row r="87" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -7257,7 +6809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:10">
+    <row r="88" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>358</v>
       </c>
@@ -7289,7 +6841,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:10">
+    <row r="89" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -7321,7 +6873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:11">
+    <row r="90" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -7352,11 +6904,11 @@
       <c r="J90" t="s">
         <v>117</v>
       </c>
-      <c r="K90" s="24" t="s">
+      <c r="K90" s="21" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:11">
+    <row r="91" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -7387,11 +6939,11 @@
       <c r="J91" t="s">
         <v>117</v>
       </c>
-      <c r="K91" s="24" t="s">
+      <c r="K91" s="21" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -7423,7 +6975,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -7455,7 +7007,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -7487,7 +7039,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -7519,7 +7071,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -7551,7 +7103,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -7583,7 +7135,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -7615,7 +7167,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -7647,7 +7199,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -7679,7 +7231,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:10">
+    <row r="101" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -7711,7 +7263,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -7743,7 +7295,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -7775,7 +7327,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:10">
+    <row r="104" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>358</v>
       </c>
@@ -7807,7 +7359,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -7839,7 +7391,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -7871,7 +7423,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:10">
+    <row r="107" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -7903,7 +7455,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:10">
+    <row r="108" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -7935,7 +7487,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>358</v>
       </c>
@@ -7967,7 +7519,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:10">
+    <row r="110" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -7999,7 +7551,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:10">
+    <row r="111" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -8031,7 +7583,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8063,7 +7615,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -8095,7 +7647,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -8127,7 +7679,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -8159,7 +7711,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:10">
+    <row r="116" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -8191,7 +7743,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:10">
+    <row r="117" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8223,7 +7775,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:10">
+    <row r="118" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -8255,7 +7807,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:10">
+    <row r="119" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8287,7 +7839,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:10">
+    <row r="120" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -8319,7 +7871,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:10">
+    <row r="121" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -8351,7 +7903,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:10">
+    <row r="122" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -8383,7 +7935,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:10">
+    <row r="123" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>21</v>
       </c>
@@ -8415,7 +7967,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:10">
+    <row r="124" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -8447,7 +7999,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:10">
+    <row r="125" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8031,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:10">
+    <row r="126" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -8511,7 +8063,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:10">
+    <row r="127" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -8543,7 +8095,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:10">
+    <row r="128" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>21</v>
       </c>
@@ -8575,7 +8127,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:10">
+    <row r="129" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -8607,7 +8159,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:10">
+    <row r="130" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -8639,7 +8191,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:10">
+    <row r="131" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8671,7 +8223,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:10">
+    <row r="132" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8703,7 +8255,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:10">
+    <row r="133" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -8735,7 +8287,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -8767,7 +8319,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:10">
+    <row r="135" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8799,7 +8351,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:10">
+    <row r="136" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -8831,7 +8383,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:10">
+    <row r="137" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -8863,7 +8415,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:10">
+    <row r="138" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -8895,7 +8447,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -8927,7 +8479,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -8956,7 +8508,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:10">
+    <row r="141" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -8988,7 +8540,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:10">
+    <row r="142" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -9020,7 +8572,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:10">
+    <row r="143" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -9052,7 +8604,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:10">
+    <row r="144" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -9084,7 +8636,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:10">
+    <row r="145" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -9116,7 +8668,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:10">
+    <row r="146" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -9148,7 +8700,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:10">
+    <row r="147" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -9180,7 +8732,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:10">
+    <row r="148" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -9212,7 +8764,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:10">
+    <row r="149" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -9244,7 +8796,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:10">
+    <row r="150" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -9276,7 +8828,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:10">
+    <row r="151" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -9308,7 +8860,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:10">
+    <row r="152" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9340,7 +8892,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:10">
+    <row r="153" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -9372,7 +8924,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:10">
+    <row r="154" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -9404,7 +8956,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:10">
+    <row r="155" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -9436,7 +8988,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:10">
+    <row r="156" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9468,7 +9020,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:10">
+    <row r="157" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -9500,7 +9052,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:10">
+    <row r="158" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -9532,7 +9084,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:10">
+    <row r="159" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -9564,7 +9116,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:10">
+    <row r="160" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9596,7 +9148,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:10">
+    <row r="161" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -9628,7 +9180,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:10">
+    <row r="162" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -9660,7 +9212,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:10">
+    <row r="163" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -9692,7 +9244,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:10">
+    <row r="164" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -9724,7 +9276,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:10">
+    <row r="165" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -9752,11 +9304,11 @@
       <c r="I165" t="s">
         <v>693</v>
       </c>
-      <c r="J165" s="25" t="s">
+      <c r="J165" s="22" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:10">
+    <row r="166" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -9784,11 +9336,11 @@
       <c r="I166" t="s">
         <v>17</v>
       </c>
-      <c r="J166" s="25" t="s">
+      <c r="J166" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:10">
+    <row r="167" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -9816,11 +9368,11 @@
       <c r="I167" t="s">
         <v>704</v>
       </c>
-      <c r="J167" s="25" t="s">
+      <c r="J167" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:10">
+    <row r="168" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -9848,11 +9400,11 @@
       <c r="I168" t="s">
         <v>17</v>
       </c>
-      <c r="J168" s="25" t="s">
+      <c r="J168" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:10">
+    <row r="169" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9880,11 +9432,11 @@
       <c r="I169" t="s">
         <v>17</v>
       </c>
-      <c r="J169" s="25" t="s">
+      <c r="J169" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:10">
+    <row r="170" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -9912,11 +9464,11 @@
       <c r="I170" t="s">
         <v>17</v>
       </c>
-      <c r="J170" s="25" t="s">
+      <c r="J170" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:10">
+    <row r="171" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -9944,11 +9496,11 @@
       <c r="I171" t="s">
         <v>17</v>
       </c>
-      <c r="J171" s="25" t="s">
+      <c r="J171" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:10">
+    <row r="172" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -9976,11 +9528,11 @@
       <c r="I172" t="s">
         <v>17</v>
       </c>
-      <c r="J172" s="25" t="s">
+      <c r="J172" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:10">
+    <row r="173" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -10008,11 +9560,11 @@
       <c r="I173" t="s">
         <v>17</v>
       </c>
-      <c r="J173" s="25" t="s">
+      <c r="J173" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:10">
+    <row r="174" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -10040,11 +9592,11 @@
       <c r="I174" t="s">
         <v>728</v>
       </c>
-      <c r="J174" s="25" t="s">
+      <c r="J174" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:10">
+    <row r="175" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -10072,11 +9624,11 @@
       <c r="I175" t="s">
         <v>733</v>
       </c>
-      <c r="J175" s="25" t="s">
+      <c r="J175" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:10">
+    <row r="176" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -10104,11 +9656,11 @@
       <c r="I176" t="s">
         <v>17</v>
       </c>
-      <c r="J176" s="25" t="s">
+      <c r="J176" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:10">
+    <row r="177" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -10136,11 +9688,11 @@
       <c r="I177" t="s">
         <v>17</v>
       </c>
-      <c r="J177" s="25" t="s">
+      <c r="J177" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:10">
+    <row r="178" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -10168,11 +9720,11 @@
       <c r="I178" t="s">
         <v>17</v>
       </c>
-      <c r="J178" s="25" t="s">
+      <c r="J178" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:10">
+    <row r="179" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -10200,11 +9752,11 @@
       <c r="I179" t="s">
         <v>747</v>
       </c>
-      <c r="J179" s="25" t="s">
+      <c r="J179" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:10">
+    <row r="180" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -10232,11 +9784,11 @@
       <c r="I180" t="s">
         <v>17</v>
       </c>
-      <c r="J180" s="25" t="s">
+      <c r="J180" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -10267,11 +9819,11 @@
       <c r="J181" t="s">
         <v>755</v>
       </c>
-      <c r="K181" s="24" t="s">
+      <c r="K181" s="21" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:10">
+    <row r="182" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -10299,11 +9851,11 @@
       <c r="I182" t="s">
         <v>760</v>
       </c>
-      <c r="J182" s="25" t="s">
+      <c r="J182" s="22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:10">
+    <row r="183" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -10335,7 +9887,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:10">
+    <row r="184" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -10367,7 +9919,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:10">
+    <row r="185" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -10399,7 +9951,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:10">
+    <row r="186" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -10431,7 +9983,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:10">
+    <row r="187" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -10463,7 +10015,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:10">
+    <row r="188" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -10495,7 +10047,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:10">
+    <row r="189" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -10527,7 +10079,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:10">
+    <row r="190" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -10559,7 +10111,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:10">
+    <row r="191" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -10591,7 +10143,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:10">
+    <row r="192" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>134</v>
       </c>
@@ -10623,7 +10175,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:10">
+    <row r="193" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -10655,7 +10207,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:10">
+    <row r="194" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -10687,7 +10239,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:10">
+    <row r="195" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -10719,7 +10271,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:10">
+    <row r="196" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -10751,7 +10303,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:10">
+    <row r="197" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -10783,7 +10335,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:10">
+    <row r="198" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -10815,7 +10367,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:10">
+    <row r="199" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10847,7 +10399,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:10">
+    <row r="200" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -10879,7 +10431,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:10">
+    <row r="201" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10911,7 +10463,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:10">
+    <row r="202" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10943,7 +10495,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:10">
+    <row r="203" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10975,7 +10527,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:10">
+    <row r="204" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -11007,7 +10559,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:10">
+    <row r="205" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -11039,7 +10591,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:10">
+    <row r="206" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -11071,7 +10623,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:10">
+    <row r="207" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -11103,7 +10655,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -11135,7 +10687,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -11167,7 +10719,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:10">
+    <row r="210" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -11199,7 +10751,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:10">
+    <row r="211" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -11231,7 +10783,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:10">
+    <row r="212" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -11263,7 +10815,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:10">
+    <row r="213" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -11295,7 +10847,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:10">
+    <row r="214" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -11327,7 +10879,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:10">
+    <row r="215" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -11359,7 +10911,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -11391,7 +10943,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:10">
+    <row r="217" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -11423,7 +10975,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -11455,7 +11007,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:10">
+    <row r="219" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -11487,7 +11039,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -11519,7 +11071,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -11551,7 +11103,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -11583,7 +11135,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -11612,7 +11164,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -11644,7 +11196,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:10">
+    <row r="225" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -11672,11 +11224,11 @@
       <c r="I225" t="s">
         <v>17</v>
       </c>
-      <c r="J225" s="25" t="s">
+      <c r="J225" s="22" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:10">
+    <row r="226" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -11708,7 +11260,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:10">
+    <row r="227" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -11740,7 +11292,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:10">
+    <row r="228" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -11772,7 +11324,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:10">
+    <row r="229" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -11804,7 +11356,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:10">
+    <row r="230" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -11836,7 +11388,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:10">
+    <row r="231" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -11868,7 +11420,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:10">
+    <row r="232" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -11900,7 +11452,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:10">
+    <row r="233" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -11932,7 +11484,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:10">
+    <row r="234" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -11964,7 +11516,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:10">
+    <row r="235" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -11996,7 +11548,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:10">
+    <row r="236" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -12028,7 +11580,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:10">
+    <row r="237" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -12060,7 +11612,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:10">
+    <row r="238" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -12092,7 +11644,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -12124,7 +11676,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -12156,7 +11708,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -12186,489 +11738,555 @@
       </c>
       <c r="J241" t="s">
         <v>960</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="23" t="s">
+        <v>966</v>
+      </c>
+      <c r="B242" s="1">
+        <v>45064</v>
+      </c>
+      <c r="C242" s="23" t="s">
+        <v>964</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F242" s="23" t="s">
+        <v>967</v>
+      </c>
+      <c r="G242" t="s">
+        <v>17</v>
+      </c>
+      <c r="H242" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="I242" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242" s="23" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="B243" s="1">
+        <v>45229</v>
+      </c>
+      <c r="C243" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F243" s="23" t="s">
+        <v>974</v>
+      </c>
+      <c r="G243" t="s">
+        <v>17</v>
+      </c>
+      <c r="H243" s="23" t="s">
+        <v>973</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" s="23" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L8:N8"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1" display="https://leetcode-cn.com/problems/guess-numbers/solution/python-3yi-xing-jie-ji-jian-yi-xing-jie-by-jpch89/"/>
-    <hyperlink ref="D34" r:id="rId2" display="https://leetcode-cn.com/problems/guess-numbers/"/>
-    <hyperlink ref="D29" r:id="rId3" display="https://leetcode-cn.com/problems/maximum-subarray/"/>
-    <hyperlink ref="G24" r:id="rId4" display="https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/solution/python-3set-by-jpch89/"/>
-    <hyperlink ref="D24" r:id="rId5" display="https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/"/>
-    <hyperlink ref="G23" r:id="rId6" display="https://leetcode-cn.com/problems/implement-strstr/solution/python-3yao-ai-da-de-yi-xing-jie-shuang-zhi-zhen-b/"/>
-    <hyperlink ref="G22" r:id="rId7" display="https://leetcode-cn.com/problems/index-pairs-of-a-string/solution/python-3bao-li-jie-fa-key-listsort-sorted-by-jpch8/"/>
-    <hyperlink ref="G21" r:id="rId8" display="https://leetcode-cn.com/problems/two-sum-less-than-k/solution/python-3shuang-zhong-xun-huan-yi-xing-jie-xian-pai/"/>
-    <hyperlink ref="D22" r:id="rId9" display="https://leetcode-cn.com/problems/index-pairs-of-a-string/"/>
-    <hyperlink ref="D21" r:id="rId10" display="https://leetcode-cn.com/problems/two-sum-less-than-k/"/>
-    <hyperlink ref="D23" r:id="rId11" display="https://leetcode-cn.com/problems/implement-strstr/"/>
-    <hyperlink ref="G20" r:id="rId12" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/solution/python-3xian-he-bing-zai-pai-xu-shuang-zhi-zhen-di/"/>
-    <hyperlink ref="D20" r:id="rId13" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/"/>
-    <hyperlink ref="G19" r:id="rId14" display="https://leetcode-cn.com/problems/sum-of-digits-in-the-minimum-number/"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://leetcode-cn.com/problems/sum-of-digits-in-the-minimum-number/"/>
-    <hyperlink ref="D18" r:id="rId15" display="https://leetcode-cn.com/problems/shortest-word-distance/"/>
-    <hyperlink ref="G18" r:id="rId16" display="https://leetcode-cn.com/problems/shortest-word-distance/solution/python-3wu-chong-jie-fa-bao-gua-chai-yi-ge-yong-li/"/>
-    <hyperlink ref="G17" r:id="rId17" display="https://leetcode-cn.com/problems/high-five/solution/python-3rong-chang-jie-fa-san-xing-jie-fa-by-jpch8/"/>
-    <hyperlink ref="D17" r:id="rId18" display="https://leetcode-cn.com/problems/high-five/"/>
-    <hyperlink ref="G16" r:id="rId19" display="https://leetcode-cn.com/problems/happy-number/solution/python-3ji-he-reduce-kuai-man-zhi-zhen-shu-xue-fa-/"/>
-    <hyperlink ref="D16" r:id="rId20" display="https://leetcode-cn.com/problems/happy-number/"/>
-    <hyperlink ref="D15" r:id="rId21" display="https://leetcode-cn.com/problems/fixed-point/"/>
-    <hyperlink ref="G15" r:id="rId22" display="https://leetcode-cn.com/problems/fixed-point/solution/python-3enumerate-die-dai-er-fen-cha-zhao-by-jpch8/"/>
-    <hyperlink ref="G14" r:id="rId23" display="https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/solution/python-3er-fen-cha-zhao-target-he-target-1-xian-zh/"/>
-    <hyperlink ref="D14" r:id="rId24" display="https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/"/>
-    <hyperlink ref="D13" r:id="rId25" display="https://leetcode-cn.com/problems/peak-index-in-a-mountain-array/"/>
-    <hyperlink ref="G12" r:id="rId26" display="https://leetcode-cn.com/problems/find-in-mountain-array/solution/python-3er-fen-cha-zhao-shi-yong-flag-he-bing-shen/"/>
-    <hyperlink ref="G13" r:id="rId27" display="https://leetcode-cn.com/problems/peak-index-in-a-mountain-array/solution/python-3liang-chong-yi-xing-jie-er-fen-cha-zhao-by/"/>
-    <hyperlink ref="D12" r:id="rId28" display="https://leetcode-cn.com/problems/find-in-mountain-array/"/>
-    <hyperlink ref="G11" r:id="rId29" display="https://leetcode-cn.com/problems/k-diff-pairs-in-an-array/solution/python-3wu-xing-jie-ba-xing-jie-by-jpch89/"/>
-    <hyperlink ref="D11" r:id="rId30" display="https://leetcode-cn.com/problems/k-diff-pairs-in-an-array/"/>
-    <hyperlink ref="G9" r:id="rId31" display="https://leetcode-cn.com/problems/pairs-of-songs-with-total-durations-divisible-by-60/solution/python-3gou-zao-yi-60-de-yu-shu-wei-suo-yin-de-shu/"/>
-    <hyperlink ref="G10" r:id="rId32" display="https://leetcode-cn.com/problems/partition-array-into-three-parts-with-equal-sum/solution/python-3xian-qiu-ping-jun-zai-fen-duan-qiu-he-by-j/"/>
-    <hyperlink ref="D9" r:id="rId33" display="https://leetcode-cn.com/problems/pairs-of-songs-with-total-durations-divisible-by-60/"/>
-    <hyperlink ref="D10" r:id="rId34" display="https://leetcode-cn.com/problems/partition-array-into-three-parts-with-equal-sum/"/>
-    <hyperlink ref="G8" r:id="rId35" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof/solution/python-3xian-pai-xu-zai-cha-zhao-counter-yi-xing-j/"/>
-    <hyperlink ref="D8" r:id="rId36" display="https://leetcode-cn.com/problems/shu-zu-zhong-shu-zi-chu-xian-de-ci-shu-lcof/"/>
-    <hyperlink ref="G7" r:id="rId37" display="https://leetcode-cn.com/problems/single-number/solution/python-3shu-xue-yi-xing-jie-yi-huo-yi-xing-jie-by-/"/>
-    <hyperlink ref="D7" r:id="rId38" display="https://leetcode-cn.com/problems/single-number/"/>
-    <hyperlink ref="G6" r:id="rId39" display="https://leetcode-cn.com/problems/two-sum/solution/python-3bao-li-jie-fa-he-zi-dian-jie-fa-by-jpch89/"/>
-    <hyperlink ref="D6" r:id="rId40" display="https://leetcode-cn.com/problems/two-sum/"/>
-    <hyperlink ref="G5" r:id="rId41" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/solution/python-3bao-li-jie-fa-yi-xing-jie-fa-yu-er-fen-cha/"/>
-    <hyperlink ref="D5" r:id="rId42" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/"/>
-    <hyperlink ref="D4" r:id="rId43" display="https://leetcode-cn.com/problems/merge-k-sorted-lists/"/>
-    <hyperlink ref="G4" r:id="rId44" display="https://leetcode-cn.com/problems/merge-k-sorted-lists/solution/python-3bao-li-jie-fa-xian-he-bing-hou-pai-xu-by-j/"/>
-    <hyperlink ref="G3" r:id="rId45" display="https://leetcode-cn.com/problems/maximum-points-you-can-obtain-from-cards/solution/python-3qiu-zhong-jian-qu-lian-xu-n-k-zhang-pai-de/"/>
-    <hyperlink ref="D3" r:id="rId46" display="https://leetcode-cn.com/problems/maximum-points-you-can-obtain-from-cards/"/>
-    <hyperlink ref="G2" r:id="rId47" display="https://leetcode-cn.com/problems/maximum-score-after-splitting-a-string/solution/python-3de-fen-zuo-0-shu-liang-you-1-shu-liang-by-/"/>
-    <hyperlink ref="D2" r:id="rId48" display="https://leetcode-cn.com/problems/maximum-score-after-splitting-a-string/"/>
-    <hyperlink ref="G29" r:id="rId49" display="https://leetcode-cn.com/problems/maximum-subarray/solution/python-3shi-bai-de-bao-li-fa-tan-xin-by-jpch89/"/>
-    <hyperlink ref="D35" r:id="rId50" display="https://leetcode-cn.com/problems/longest-common-prefix/"/>
-    <hyperlink ref="D41" r:id="rId51" display="https://leetcode-cn.com/problems/remove-vowels-from-a-string/"/>
-    <hyperlink ref="D42" r:id="rId52" display="https://leetcode-cn.com/problems/single-row-keyboard/"/>
-    <hyperlink ref="D28" r:id="rId53" display="https://leetcode-cn.com/problems/number-of-ways-to-wear-different-hats-to-each-other/"/>
-    <hyperlink ref="D43" r:id="rId54" display="https://leetcode-cn.com/problems/jump-game/"/>
-    <hyperlink ref="G43" r:id="rId55" display="https://leetcode-cn.com/problems/jump-game/solution/tiao-yue-you-xi-cong-dpdao-dpdao-tan-xin-cong-bfsd/"/>
-    <hyperlink ref="D44" r:id="rId56" display="https://leetcode-cn.com/problems/jump-game-ii/"/>
-    <hyperlink ref="D40" r:id="rId57" display="https://leetcode-cn.com/problems/reverse-vowels-of-a-string/"/>
-    <hyperlink ref="D39" r:id="rId58" display="https://leetcode-cn.com/problems/reverse-string/"/>
-    <hyperlink ref="D38" r:id="rId59" display="https://leetcode-cn.com/problems/ransom-note/"/>
-    <hyperlink ref="D37" r:id="rId60" display="https://leetcode-cn.com/problems/first-unique-character-in-a-string/"/>
-    <hyperlink ref="D36" r:id="rId61" display="https://leetcode-cn.com/problems/length-of-last-word/"/>
-    <hyperlink ref="G44" r:id="rId62" display="https://leetcode-cn.com/problems/jump-game-ii/solution/python-3tan-xin-suan-fa-by-jpch89-2/"/>
-    <hyperlink ref="D25" r:id="rId63" display="https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/"/>
-    <hyperlink ref="D26" r:id="rId64" display="https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/"/>
-    <hyperlink ref="G25" r:id="rId65" display="https://leetcode-cn.com/problems/kids-with-the-greatest-number-of-candies/solution/python-3yi-xing-jie-by-jpch89/"/>
-    <hyperlink ref="G26" r:id="rId66" display="https://leetcode-cn.com/problems/max-difference-you-can-get-from-changing-an-integer/solution/python-3xian-qiu-zui-da-zhi-zai-qiu-zui-xiao-zhi-b/"/>
-    <hyperlink ref="D45" r:id="rId67" display="https://leetcode-cn.com/problems/validate-binary-search-tree/"/>
-    <hyperlink ref="G45" r:id="rId68" display="https://leetcode-cn.com/problems/validate-binary-search-tree/solution/python-3zhong-xu-bian-li-by-jpch89/"/>
-    <hyperlink ref="D46" r:id="rId69" display="https://leetcode-cn.com/problems/minimum-cost-for-tickets/"/>
-    <hyperlink ref="G46" r:id="rId70" display="https://leetcode-cn.com/problems/minimum-cost-for-tickets/solution/python-3dong-tai-gui-hua-can-kao-guan-jie-by-jpch8/"/>
-    <hyperlink ref="D27" r:id="rId71" display="https://leetcode-cn.com/problems/check-if-a-string-can-break-another-string/"/>
-    <hyperlink ref="G27" r:id="rId72" display="https://leetcode-cn.com/problems/check-if-a-string-can-break-another-string/solution/python-3xian-pai-xu-zai-bi-jiao-ji-ji-chong-jian-h/"/>
-    <hyperlink ref="D47" r:id="rId73" display="https://leetcode-cn.com/problems/subtree-of-another-tree/"/>
-    <hyperlink ref="G47" r:id="rId74" display="https://leetcode-cn.com/problems/subtree-of-another-tree/solution/xiong-mao-shua-ti-python3-di-gui-pan-duan-liang-ke/"/>
-    <hyperlink ref="D48" r:id="rId75" display="https://leetcode-cn.com/problems/maximal-square/"/>
-    <hyperlink ref="G48" r:id="rId76" display="https://leetcode-cn.com/problems/maximal-square/solution/python-3bao-li-fa-dong-tai-gui-hua-by-jpch89/"/>
-    <hyperlink ref="G28" r:id="rId77" display="https://leetcode-cn.com/problems/number-of-ways-to-wear-different-hats-to-each-other/solution/python-3xie-gei-zi-ji-de-chao-xiang-xi-zhuang-ya-d/"/>
-    <hyperlink ref="D30" r:id="rId78" display="https://leetcode-cn.com/problems/destination-city/"/>
-    <hyperlink ref="G49" r:id="rId79" display="https://leetcode-cn.com/problems/sqrtx/solution/python-3er-fen-cha-zhao-ji-qi-ta-by-jpch89/"/>
-    <hyperlink ref="D49" r:id="rId80" display="https://leetcode-cn.com/problems/sqrtx/"/>
-    <hyperlink ref="G30" r:id="rId81" display="https://leetcode-cn.com/problems/destination-city/solution/python-3bao-li-fa-chai-ji-chou-lou-yi-xing-jie-you/"/>
-    <hyperlink ref="D31" r:id="rId82" display="https://leetcode-cn.com/problems/check-if-all-1s-are-at-least-length-k-places-away/"/>
-    <hyperlink ref="D32" r:id="rId83" display="https://leetcode-cn.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/"/>
-    <hyperlink ref="D33" r:id="rId84" display="https://leetcode-cn.com/problems/find-the-kth-smallest-sum-of-a-matrix-with-sorted-rows/"/>
-    <hyperlink ref="D51" r:id="rId85" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
-    <hyperlink ref="D52" r:id="rId86" display="https://leetcode-cn.com/problems/build-an-array-with-stack-operations/"/>
-    <hyperlink ref="D53" r:id="rId87" display="https://leetcode-cn.com/problems/count-triplets-that-can-form-two-arrays-of-equal-xor/"/>
-    <hyperlink ref="D54" r:id="rId88" display="https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree/"/>
-    <hyperlink ref="D55" r:id="rId89" display="https://leetcode-cn.com/problems/number-of-ways-of-cutting-a-pizza/"/>
-    <hyperlink ref="G51" r:id="rId90" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/solution/python-3lrd-jie-jue-lca-wen-ti-by-jpch89/"/>
-    <hyperlink ref="D50" r:id="rId91" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua/"/>
-    <hyperlink ref="G50" r:id="rId92" display="https://leetcode-cn.com/problems/xiao-zhang-shua-ti-ji-hua/solution/lcp-12-xiao-zhang-shua-ti-ji-hua-by-jpch89/"/>
-    <hyperlink ref="D56" r:id="rId93" display="https://leetcode-cn.com/problems/min-stack/"/>
-    <hyperlink ref="G56" r:id="rId94" display="https://leetcode-cn.com/problems/min-stack/solution/python-3fu-zhu-zhan-ji-lu-zui-xiao-zhi-by-jpch89/"/>
-    <hyperlink ref="G52" r:id="rId95" display="https://leetcode-cn.com/problems/build-an-array-with-stack-operations/solution/python-3bian-li-target-by-jpch89/"/>
-    <hyperlink ref="G35" r:id="rId96" display="https://leetcode-cn.com/problems/longest-common-prefix/solution/python-3reduce-hua-jian-by-jpch89/"/>
-    <hyperlink ref="G36" r:id="rId97" display="https://leetcode-cn.com/problems/length-of-last-word/solution/python-3yi-xing-jie-by-jpch89-2/"/>
-    <hyperlink ref="G37" r:id="rId98" display="https://leetcode-cn.com/problems/first-unique-character-in-a-string/solution/python-3counter-zi-dian-by-jpch89/"/>
-    <hyperlink ref="G53" r:id="rId99" display="https://leetcode-cn.com/problems/count-triplets-that-can-form-two-arrays-of-equal-xor/solution/python-3san-zhong-xun-huan-by-jpch89/"/>
-    <hyperlink ref="G54" r:id="rId100" display="https://leetcode-cn.com/problems/minimum-time-to-collect-all-apples-in-a-tree/solution/python-3gou-zao-fan-xiang-lu-jing-zi-dian-ji-he-qu/"/>
-    <hyperlink ref="G38" r:id="rId101" display="https://leetcode-cn.com/problems/ransom-note/solution/python-3liang-xing-jie-da-lao-men-de-yi-xing-jie-z/"/>
-    <hyperlink ref="G39" r:id="rId102" display="https://leetcode-cn.com/problems/reverse-string/solution/python-3san-xing-jie-liang-xing-jie-yi-xing-jie-by/"/>
-    <hyperlink ref="G40" r:id="rId103" display="https://leetcode-cn.com/problems/reverse-vowels-of-a-string/solution/python-3fu-zhu-lie-biao-shuang-zhi-zhen-by-jpch89/"/>
-    <hyperlink ref="G41" r:id="rId104" display="https://leetcode-cn.com/problems/remove-vowels-from-a-string/solution/python-3yi-xing-jie-sheng-cheng-qi-biao-da-shi-by-/"/>
-    <hyperlink ref="G42" r:id="rId105" display="https://leetcode-cn.com/problems/single-row-keyboard/solution/python-3bao-li-mo-ni-zi-dian-by-jpch89/"/>
-    <hyperlink ref="D61" r:id="rId106" display="https://leetcode-cn.com/problems/closest-binary-search-tree-value/"/>
-    <hyperlink ref="D62" r:id="rId107" display="https://leetcode-cn.com/problems/check-balance-lcci/"/>
-    <hyperlink ref="D63" r:id="rId108" display="https://leetcode-cn.com/problems/same-tree/"/>
-    <hyperlink ref="D64" r:id="rId109" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/"/>
-    <hyperlink ref="D65" r:id="rId110" display="https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/"/>
-    <hyperlink ref="D66" r:id="rId111" display="https://leetcode-cn.com/problems/balanced-binary-tree/"/>
-    <hyperlink ref="D67" r:id="rId112" display="https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/"/>
-    <hyperlink ref="D68" r:id="rId113" display="https://leetcode-cn.com/problems/invert-binary-tree/"/>
-    <hyperlink ref="D69" r:id="rId114" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
-    <hyperlink ref="D70" r:id="rId115" display="https://leetcode-cn.com/problems/binary-tree-paths/"/>
-    <hyperlink ref="G31" r:id="rId116" display="https://leetcode-cn.com/problems/check-if-all-1s-are-at-least-length-k-places-away/solution/python-3yi-ci-bian-li-by-jpch89/"/>
-    <hyperlink ref="D60" r:id="rId117" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/"/>
-    <hyperlink ref="G60" r:id="rId118" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal/solution/python-3er-yuan-zu-wei-hu-ceng-shu-xin-xi-bian-lia/"/>
-    <hyperlink ref="D57" r:id="rId119" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
-    <hyperlink ref="D58" r:id="rId120" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/description/"/>
-    <hyperlink ref="D59" r:id="rId121" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
-    <hyperlink ref="G57" r:id="rId122" display="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/solution/python-3di-gui-ban-die-dai-ban-by-jpch89/"/>
-    <hyperlink ref="G58" r:id="rId123" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/solution/python-3di-gui-ban-die-dai-ban-by-jpch89-2/"/>
-    <hyperlink ref="G59" r:id="rId124" display="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/solution/python-3di-gui-ban-die-dai-ban-by-jpch89-3/"/>
-    <hyperlink ref="G61" r:id="rId125" display="https://leetcode-cn.com/problems/closest-binary-search-tree-value/solution/python-3sheng-cheng-zhong-xu-xu-lie-hou-bian-li-by/"/>
-    <hyperlink ref="G62" r:id="rId126" display="https://leetcode-cn.com/problems/check-balance-lcci/solution/python-3shuang-zhong-di-gui-dan-di-gui-by-jpch89/"/>
-    <hyperlink ref="D71" r:id="rId127" display="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/"/>
-    <hyperlink ref="G71" r:id="rId128" display="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/solution/python-3di-gui-zi-ding-xiang-xia-zi-di-xiang-shang/"/>
-    <hyperlink ref="D72" r:id="rId129" display="https://leetcode-cn.com/problems/subarray-sum-equals-k/"/>
-    <hyperlink ref="G72" r:id="rId130" display="https://leetcode-cn.com/problems/subarray-sum-equals-k/solution/python-3ge-chong-shi-bai-de-bao-li-fa-qian-zhui-he/"/>
-    <hyperlink ref="D73" r:id="rId131" display="https://leetcode-cn.com/problems/maximum-product-subarray/"/>
-    <hyperlink ref="G73" r:id="rId132" display="https://leetcode-cn.com/problems/maximum-product-subarray/solution/python-3dong-tai-gui-hua-by-jpch89/"/>
-    <hyperlink ref="D74" r:id="rId133" display="https://leetcode-cn.com/problems/valid-palindrome-ii/"/>
-    <hyperlink ref="G74" r:id="rId134" display="https://leetcode-cn.com/problems/valid-palindrome-ii/solution/python-3shuang-zhi-zhen-by-jpch89/"/>
-    <hyperlink ref="D75" r:id="rId135" display="https://leetcode-cn.com/problems/symmetric-tree/"/>
-    <hyperlink ref="G75" r:id="rId136" display="https://leetcode-cn.com/problems/symmetric-tree/solution/python-3die-dai-fa-di-gui-fa-by-jpch89/"/>
-    <hyperlink ref="D76" r:id="rId137" display="https://leetcode-cn.com/problems/path-sum/"/>
-    <hyperlink ref="G76" r:id="rId138" display="https://leetcode-cn.com/problems/path-sum/solution/python-3di-gui-by-jpch89/"/>
-    <hyperlink ref="D77" r:id="rId139" display="https://leetcode-cn.com/problems/find-the-longest-substring-containing-vowels-in-even-counts/"/>
-    <hyperlink ref="G77" r:id="rId140" display="https://leetcode-cn.com/problems/find-the-longest-substring-containing-vowels-in-even-counts/solution/python-3zhuang-tai-ya-suo-qian-zhui-he-lie-biao-zi/"/>
-    <hyperlink ref="D78" r:id="rId141" display="https://leetcode-cn.com/problems/longest-palindromic-substring/"/>
-    <hyperlink ref="G78" r:id="rId142" display="https://leetcode-cn.com/problems/longest-palindromic-substring/solution/python-3bao-li-fa-by-jpch89/"/>
-    <hyperlink ref="D79" r:id="rId143" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
-    <hyperlink ref="G79" r:id="rId144" display="https://leetcode-cn.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/solution/python-3di-gui-by-jpch89-3/"/>
-    <hyperlink ref="G80" r:id="rId145" display="https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/solution/python-3di-gui-zi-dian-jia-su-cha-zhao-by-jpch89/"/>
-    <hyperlink ref="D80" r:id="rId146" display="https://leetcode-cn.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
-    <hyperlink ref="D81" r:id="rId147" display="https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/"/>
-    <hyperlink ref="G81" r:id="rId148" display="https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/solution/python-3bfson-kong-jian-fu-za-du-by-jpch89/"/>
-    <hyperlink ref="D82" r:id="rId149" display="https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node-ii/"/>
-    <hyperlink ref="G82" r:id="rId150" display="https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node-ii/solution/python-3ceng-ci-bian-li-on-by-jpch89/"/>
-    <hyperlink ref="G83" r:id="rId151" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/solution/python-3bfs-by-jpch89/"/>
-    <hyperlink ref="D83" r:id="rId152" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/"/>
-    <hyperlink ref="D84" r:id="rId153" display="https://leetcode-cn.com/problems/binary-search/"/>
-    <hyperlink ref="G84" r:id="rId154" display="https://leetcode-cn.com/problems/binary-search/solution/python-3liang-chong-xie-fa-by-jpch89/"/>
-    <hyperlink ref="D85" r:id="rId155" display="https://leetcode-cn.com/problems/guess-number-higher-or-lower/"/>
-    <hyperlink ref="G86" r:id="rId156" display="https://leetcode-cn.com/problems/median-of-two-sorted-arrays/solution/python-3bao-li-jie-yi-xing-jie-by-jpch89/"/>
-    <hyperlink ref="G85" r:id="rId157" display="https://leetcode-cn.com/problems/guess-number-higher-or-lower/solution/python-3er-fen-you-qu-xia-jie-by-jpch89/"/>
-    <hyperlink ref="D86" r:id="rId158" display="https://leetcode-cn.com/problems/median-of-two-sorted-arrays/"/>
-    <hyperlink ref="D87" r:id="rId159" display="https://leetcode-cn.com/problems/find-the-duplicate-number/"/>
-    <hyperlink ref="G87" r:id="rId160" display="https://leetcode-cn.com/problems/find-the-duplicate-number/solution/python-3kuai-man-zhi-zhen-ji-qi-ta-by-jpch89/"/>
-    <hyperlink ref="D88" r:id="rId161" display="https://leetcode-cn.com/problems/subarray-sums-divisible-by-k/"/>
-    <hyperlink ref="G88" r:id="rId162" display="https://leetcode-cn.com/problems/subarray-sums-divisible-by-k/solution/python-3liang-xing-jie-qian-zhui-he-yu-shu-xing-zh/"/>
-    <hyperlink ref="G89" r:id="rId163" display="https://leetcode-cn.com/problems/decode-string/solution/python-3zhan-yong-yu-gua-hao-pi-pei-by-jpch89/"/>
-    <hyperlink ref="D89" r:id="rId164" display="https://leetcode-cn.com/problems/decode-string/"/>
-    <hyperlink ref="D90" r:id="rId165" display="https://leetcode-cn.com/problems/house-robber/"/>
-    <hyperlink ref="G90" r:id="rId166" display="https://leetcode-cn.com/problems/house-robber/solution/python-3dong-tai-gui-hua-by-jpch89-2/"/>
-    <hyperlink ref="D91" r:id="rId167" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/"/>
-    <hyperlink ref="G91" r:id="rId168" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/solution/python-3zuo-xiao-deng-dan-diao-zhan-tou-shao-bing-/"/>
-    <hyperlink ref="D92" r:id="rId169" display="https://leetcode-cn.com/problems/maximum-product-of-two-elements-in-an-array/"/>
-    <hyperlink ref="G92" r:id="rId170" display="https://leetcode-cn.com/problems/maximum-product-of-two-elements-in-an-array/solution/python-3bao-li-jie-yi-xing-jie-xian-pai-xu-zai-xia/"/>
-    <hyperlink ref="D93" r:id="rId171" display="https://leetcode-cn.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/"/>
-    <hyperlink ref="G93" r:id="rId172" display="https://leetcode-cn.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/solution/python-3pai-xu-by-acw_jpch89/"/>
-    <hyperlink ref="D94" r:id="rId173" display="https://leetcode-cn.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/"/>
-    <hyperlink ref="G94" r:id="rId174" display="https://leetcode-cn.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/solution/python-3dfs-by-acw_jpch89/"/>
-    <hyperlink ref="D95" r:id="rId175" display="https://leetcode-cn.com/problems/probability-of-a-two-boxes-having-the-same-number-of-distinct-balls/"/>
-    <hyperlink ref="G95" r:id="rId175" display="https://leetcode-cn.com/problems/probability-of-a-two-boxes-having-the-same-number-of-distinct-balls/"/>
-    <hyperlink ref="D98" r:id="rId176" display="https://leetcode-cn.com/problems/course-schedule-iv/"/>
-    <hyperlink ref="D97" r:id="rId177" display="https://leetcode-cn.com/problems/check-if-a-string-contains-all-binary-codes-of-size-k/"/>
-    <hyperlink ref="D99" r:id="rId178" display="https://leetcode-cn.com/problems/cherry-pickup-ii/"/>
-    <hyperlink ref="D96" r:id="rId179" display="https://leetcode-cn.com/problems/make-two-arrays-equal-by-reversing-sub-arrays/"/>
-    <hyperlink ref="G96" r:id="rId180" display="https://leetcode-cn.com/problems/make-two-arrays-equal-by-reversing-sub-arrays/solution/python-3yi-xing-jie-by-acw_jpch89/"/>
-    <hyperlink ref="G97" r:id="rId181" display="https://leetcode-cn.com/problems/check-if-a-string-contains-all-binary-codes-of-size-k/solution/python-3bao-li-fa-liang-chong-yi-xing-jie-by-acw_j/"/>
-    <hyperlink ref="D100" r:id="rId182" display="https://leetcode-cn.com/problems/add-two-numbers/"/>
-    <hyperlink ref="G100" r:id="rId183" display="https://leetcode-cn.com/problems/add-two-numbers/solution/python-3mo-ni-by-acw_jpch89/"/>
-    <hyperlink ref="D101" r:id="rId184" display="https://leetcode-cn.com/problems/qiu-12n-lcof/"/>
-    <hyperlink ref="G101" r:id="rId185" display="https://leetcode-cn.com/problems/qiu-12n-lcof/solution/python-3si-chong-he-gui-jie-yi-chong-bie-ren-de-c-/"/>
-    <hyperlink ref="D102" r:id="rId186" display="https://leetcode-cn.com/problems/zigzag-conversion/"/>
-    <hyperlink ref="G102" r:id="rId187" display="https://leetcode-cn.com/problems/zigzag-conversion/solution/python-3mo-ni-by-acw_jpch89-2/"/>
-    <hyperlink ref="G103" r:id="rId188" display="https://leetcode-cn.com/problems/reverse-integer/solution/python-3lei-xing-zhuan-huan-by-acw_jpch89/"/>
-    <hyperlink ref="D103" r:id="rId189" display="https://leetcode-cn.com/problems/reverse-integer/"/>
-    <hyperlink ref="G104" r:id="rId190" display="https://leetcode-cn.com/problems/product-of-array-except-self/solution/python-3san-xing-jie-o1-kong-jian-fu-za-du-by-acw_/"/>
-    <hyperlink ref="D104" r:id="rId191" display="https://leetcode-cn.com/problems/product-of-array-except-self/"/>
-    <hyperlink ref="D105" r:id="rId192" display="https://leetcode-cn.com/problems/string-to-integer-atoi/"/>
-    <hyperlink ref="G105" r:id="rId193" display="https://leetcode-cn.com/problems/string-to-integer-atoi/solution/python-3mo-ni-by-acw_jpch89-3/"/>
-    <hyperlink ref="D106" r:id="rId194" display="https://leetcode-cn.com/problems/palindrome-number/"/>
-    <hyperlink ref="G106" r:id="rId195" display="https://leetcode-cn.com/problems/palindrome-number/solution/python-3yi-xing-jie-zhuan-zi-fu-chuan-shu-xue-fang/"/>
-    <hyperlink ref="D108" r:id="rId196" display="https://leetcode-cn.com/problems/spiral-matrix/"/>
-    <hyperlink ref="D107" r:id="rId197" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/"/>
-    <hyperlink ref="G107" r:id="rId198" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/solution/python-3mo-ni-by-acw_jpch89-4/"/>
-    <hyperlink ref="G108" r:id="rId199" display="https://leetcode-cn.com/problems/spiral-matrix/solution/python-3mo-ni-by-acw_jpch89-5/"/>
-    <hyperlink ref="D109" r:id="rId200" display="https://leetcode-cn.com/problems/regular-expression-matching/"/>
-    <hyperlink ref="G109" r:id="rId201" display="https://leetcode-cn.com/problems/regular-expression-matching/solution/python-3di-gui-by-acw_jpch89/"/>
-    <hyperlink ref="G99" r:id="rId202" display="https://leetcode-cn.com/problems/cherry-pickup-ii/solution/python-3dong-tai-gui-hua-by-acw_jpch89/"/>
-    <hyperlink ref="G98" r:id="rId203" display="https://leetcode-cn.com/problems/course-schedule-iv/solution/python-3dfs-by-acw_jpch89-2/"/>
-    <hyperlink ref="G110" r:id="rId204" display="https://leetcode-cn.com/problems/longest-consecutive-sequence/solution/python-3xian-qu-zhong-zai-pai-xu-by-acw_jpch89/"/>
-    <hyperlink ref="D110" r:id="rId205" display="https://leetcode-cn.com/problems/longest-consecutive-sequence/"/>
-    <hyperlink ref="G63" r:id="rId206" display="https://leetcode-cn.com/problems/same-tree/solution/python-3dfs-by-acw_jpch89-3/"/>
-    <hyperlink ref="G64" r:id="rId207" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/solution/python-3bfs-by-acw_jpch89/"/>
-    <hyperlink ref="G111" r:id="rId208" display="https://leetcode-cn.com/problems/satisfiability-of-equality-equations/solution/python-3bing-cha-ji-by-acw_jpch89/"/>
-    <hyperlink ref="D111" r:id="rId209" display="https://leetcode-cn.com/problems/satisfiability-of-equality-equations/"/>
-    <hyperlink ref="D112" r:id="rId210" display="https://leetcode-cn.com/problems/shuffle-the-array/"/>
-    <hyperlink ref="G112" r:id="rId211" display="https://leetcode-cn.com/problems/shuffle-the-array/solution/python-3bian-li-by-acw_jpch89/"/>
-    <hyperlink ref="D113" r:id="rId212" display="https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/"/>
-    <hyperlink ref="G113" r:id="rId213" display="https://leetcode-cn.com/problems/the-k-strongest-values-in-an-array/solution/python-3key-han-shu-yu-cmp-han-shu-by-acw_jpch89/"/>
-    <hyperlink ref="G114" r:id="rId214" display="https://leetcode-cn.com/problems/design-browser-history/solution/python-3mo-ni-by-acw_jpch89-6/"/>
-    <hyperlink ref="D114" r:id="rId215" display="https://leetcode-cn.com/problems/design-browser-history/"/>
-    <hyperlink ref="D115" r:id="rId216" display="https://leetcode-cn.com/problems/paint-house-iii/"/>
-    <hyperlink ref="G115" r:id="rId217" display="https://leetcode-cn.com/problems/paint-house-iii/solution/python-3san-wei-dong-tai-gui-hua-by-acw_jpch89/"/>
-    <hyperlink ref="D116" r:id="rId218" display="https://leetcode-cn.com/problems/daily-temperatures/"/>
-    <hyperlink ref="G116" r:id="rId219" display="https://leetcode-cn.com/problems/daily-temperatures/solution/python-3dan-diao-di-jian-zhan-by-acw_jpch89/"/>
-    <hyperlink ref="G65" r:id="rId220" display="https://leetcode-cn.com/problems/convert-sorted-array-to-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-2/"/>
-    <hyperlink ref="G66" r:id="rId221" display="https://leetcode-cn.com/problems/balanced-binary-tree/solution/python-3dfs-by-acw_jpch89-4/"/>
-    <hyperlink ref="G67" r:id="rId222" display="https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/solution/python-3dfs-by-acw_jpch89-5/"/>
-    <hyperlink ref="G68" r:id="rId223" display="https://leetcode-cn.com/problems/invert-binary-tree/solution/python-3di-gui-cuo-wu-shi-fan-zheng-que-shi-fan-by/"/>
-    <hyperlink ref="G69" r:id="rId224" display="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-search-tree/solution/python-3di-gui-by-acw_jpch89-3/"/>
-    <hyperlink ref="G70" r:id="rId225" display="https://leetcode-cn.com/problems/binary-tree-paths/solution/python-3dfs-by-acw_jpch89-6/"/>
-    <hyperlink ref="D117" r:id="rId226" display="https://leetcode-cn.com/problems/climbing-stairs/"/>
-    <hyperlink ref="G117" r:id="rId227" display="https://leetcode-cn.com/problems/climbing-stairs/solution/python-3dong-tai-gui-hua-by-acw_jpch89-2/"/>
-    <hyperlink ref="G118" r:id="rId228" display="https://leetcode-cn.com/problems/best-sightseeing-pair/solution/python-3chao-shi-bao-li-jie-yi-ci-bian-li-lei-si-h/"/>
-    <hyperlink ref="D118" r:id="rId229" display="https://leetcode-cn.com/problems/best-sightseeing-pair/"/>
-    <hyperlink ref="D119" r:id="rId230" display="https://leetcode-cn.com/problems/valid-palindrome/"/>
-    <hyperlink ref="G119" r:id="rId231" display="https://leetcode-cn.com/problems/valid-palindrome/solution/python-3liang-xing-jie-lie-biao-jie-xi-shi-fan-zhu/"/>
-    <hyperlink ref="D120" r:id="rId232" display="https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/"/>
-    <hyperlink ref="G120" r:id="rId233" display="https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/solution/python-3dfs-by-acw_jpch89-7/"/>
-    <hyperlink ref="D121" r:id="rId234" display="https://leetcode-cn.com/problems/add-binary/"/>
-    <hyperlink ref="G121" r:id="rId235" display="https://leetcode-cn.com/problems/add-binary/solution/python-3yi-xing-jie-int-he-bin-by-acw_jpch89/"/>
-    <hyperlink ref="D122" r:id="rId236" display="https://leetcode-cn.com/problems/first-missing-positive/"/>
-    <hyperlink ref="G122" r:id="rId237" display="https://leetcode-cn.com/problems/first-missing-positive/solution/python-3onlogn-de-jie-fa-by-acw_jpch89/"/>
-    <hyperlink ref="D123" r:id="rId238" display="https://leetcode-cn.com/problems/minimum-size-subarray-sum/"/>
-    <hyperlink ref="G123" r:id="rId239" display="https://leetcode-cn.com/problems/minimum-size-subarray-sum/solution/python-3chao-shi-bao-li-jie-hua-dong-chuang-kou-by/"/>
-    <hyperlink ref="D124" r:id="rId240" display="https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/"/>
-    <hyperlink ref="G124" r:id="rId241" display="https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/solution/python-3mei-ci-ru-dui-chu-dui-du-dao-teng-zhi-zai-/"/>
-    <hyperlink ref="D125" r:id="rId242" display="https://leetcode-cn.com/problems/unique-paths-ii/"/>
-    <hyperlink ref="G125" r:id="rId243" display="https://leetcode-cn.com/problems/unique-paths-ii/solution/python-3dong-tai-gui-hua-by-acw_jpch89-3/"/>
-    <hyperlink ref="D126" r:id="rId244" display="https://leetcode-cn.com/problems/diving-board-lcci/"/>
-    <hyperlink ref="G126" r:id="rId245" display="https://leetcode-cn.com/problems/diving-board-lcci/solution/python-3bao-li-mo-ni-by-acw_jpch89/"/>
-    <hyperlink ref="D127" r:id="rId246" display="https://leetcode-cn.com/problems/re-space-lcci/"/>
-    <hyperlink ref="G127" r:id="rId247" display="https://leetcode-cn.com/problems/re-space-lcci/solution/python-3dong-tai-gui-hua-by-acw_jpch89-4/"/>
-    <hyperlink ref="D128" r:id="rId248" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
-    <hyperlink ref="G128" r:id="rId249" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/solution/python-3dong-tai-gui-hua-by-acw_jpch89-5/"/>
-    <hyperlink ref="G129" r:id="rId250" display="https://leetcode-cn.com/problems/count-of-smaller-numbers-after-self/solution/python-3chao-shi-bao-li-jie-wu-xing-jie-by-acw_jpc/"/>
-    <hyperlink ref="D129" r:id="rId251" display="https://leetcode-cn.com/problems/count-of-smaller-numbers-after-self/"/>
-    <hyperlink ref="D130" r:id="rId252" display="https://leetcode-cn.com/problems/dungeon-game/"/>
-    <hyperlink ref="G130" r:id="rId253" display="https://leetcode-cn.com/problems/dungeon-game/solution/python-3ba-xing-jie-dong-tai-gui-hua-by-acw_jpch89/"/>
-    <hyperlink ref="G131" r:id="rId254" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/solution/python-3yi-xing-jie-by-acw_jpch89-2/"/>
-    <hyperlink ref="D131" r:id="rId255" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/"/>
-    <hyperlink ref="G132" r:id="rId256" display="https://leetcode-cn.com/problems/triangle/solution/python-3chao-shi-dfs-dong-tai-gui-hua-by-acw_jpch8/"/>
-    <hyperlink ref="D132" r:id="rId257" display="https://leetcode-cn.com/problems/triangle/"/>
-    <hyperlink ref="G133" r:id="rId258" display="https://leetcode-cn.com/problems/unique-binary-search-trees/solution/python-3dp-by-acw_jpch89/"/>
-    <hyperlink ref="D133" r:id="rId259" display="https://leetcode-cn.com/problems/unique-binary-search-trees/"/>
-    <hyperlink ref="G134" r:id="rId260" display="https://leetcode-cn.com/problems/unique-binary-search-trees-ii/solution/python-3di-gui-by-acw_jpch89-4/"/>
-    <hyperlink ref="D134" r:id="rId261" display="https://leetcode-cn.com/problems/unique-binary-search-trees-ii/"/>
-    <hyperlink ref="D135" r:id="rId262" display="https://leetcode-cn.com/problems/search-insert-position/"/>
-    <hyperlink ref="G135" r:id="rId263" display="https://leetcode-cn.com/problems/search-insert-position/solution/python-3yi-xing-jie-bao-li-fa-er-fen-cha-zhao-by-a/"/>
-    <hyperlink ref="G136" r:id="rId264" display="https://leetcode-cn.com/problems/interleaving-string/solution/python-3er-wei-dp-by-acw_jpch89/"/>
-    <hyperlink ref="D136" r:id="rId265" display="https://leetcode-cn.com/problems/interleaving-string/"/>
-    <hyperlink ref="D137" r:id="rId266" display="https://leetcode-cn.com/problems/burst-balloons/"/>
-    <hyperlink ref="G137" r:id="rId267" display="https://leetcode-cn.com/problems/burst-balloons/solution/python-3dong-tai-gui-hua-by-acw_jpch89-6/"/>
-    <hyperlink ref="D139" r:id="rId268" display="https://leetcode-cn.com/problems/water-bottles/solution/python-3mo-ni-shu-xue-yi-xing-jie-by-acw_jpch89/"/>
-    <hyperlink ref="G139" r:id="rId268" display="https://leetcode-cn.com/problems/water-bottles/solution/python-3mo-ni-shu-xue-yi-xing-jie-by-acw_jpch89/"/>
-    <hyperlink ref="D140" r:id="rId269" display="https://leetcode-cn.com/problems/number-of-nodes-in-the-sub-tree-with-the-same-label/"/>
-    <hyperlink ref="D141" r:id="rId270" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/"/>
-    <hyperlink ref="G141" r:id="rId271" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/solution/python-3bao-li-yi-xing-jie-by-acw_jpch89/"/>
-    <hyperlink ref="D142" r:id="rId272" display="https://leetcode-cn.com/problems/minimum-path-sum/"/>
-    <hyperlink ref="G142" r:id="rId273" display="https://leetcode-cn.com/problems/minimum-path-sum/solution/python-3zui-xiao-lu-jing-he-by-acw_jpch89/"/>
-    <hyperlink ref="D138" r:id="rId274" display="https://leetcode-cn.com/problems/two-sum-ii-input-array-is-sorted/"/>
-    <hyperlink ref="G138" r:id="rId275" display="https://leetcode-cn.com/problems/two-sum-ii-input-array-is-sorted/solution/python-3sha-zhao-er-fen-cha-zhao-shuang-zhi-zhen-b/"/>
-    <hyperlink ref="D143" r:id="rId276" display="https://leetcode-cn.com/problems/divisor-game/"/>
-    <hyperlink ref="G143" r:id="rId277" display="https://leetcode-cn.com/problems/divisor-game/solution/python-3tui-li-by-acw_jpch89/"/>
-    <hyperlink ref="G144" r:id="rId278" display="https://leetcode-cn.com/problems/is-subsequence/solution/python-3bao-li-fa-by-acw_jpch89-2/"/>
-    <hyperlink ref="D144" r:id="rId279" display="https://leetcode-cn.com/problems/is-subsequence/"/>
-    <hyperlink ref="G145" r:id="rId280" display="https://leetcode-cn.com/problems/integer-break/solution/python-3shu-xue-fa-xuan-xue-fa-dong-tai-gui-hua-by/"/>
-    <hyperlink ref="D145" r:id="rId281" display="https://leetcode-cn.com/problems/integer-break/"/>
-    <hyperlink ref="G146" r:id="rId282" display="https://leetcode-cn.com/problems/magic-index-lcci/solution/python-3bao-li-fa-by-acw_jpch89-3/"/>
-    <hyperlink ref="D146" r:id="rId283" display="https://leetcode-cn.com/problems/magic-index-lcci/"/>
-    <hyperlink ref="D147" r:id="rId284" display="https://leetcode-cn.com/problems/flatten-binary-tree-to-linked-list/"/>
-    <hyperlink ref="G147" r:id="rId285" display="https://leetcode-cn.com/problems/flatten-binary-tree-to-linked-list/solution/python-3li-yong-qian-xu-xu-lie-by-acw_jpch89/"/>
-    <hyperlink ref="D148" r:id="rId286" display="https://leetcode-cn.com/problems/add-strings/"/>
-    <hyperlink ref="G148" r:id="rId287" display="https://leetcode-cn.com/problems/add-strings/solution/python-33-xing-jie-map-reduce-by-acw_jpch89/"/>
-    <hyperlink ref="G149" r:id="rId288" display="https://leetcode-cn.com/problems/house-robber-iii/solution/python-3liang-chong-dfs-by-acw_jpch89/"/>
-    <hyperlink ref="D149" r:id="rId289" display="https://leetcode-cn.com/problems/house-robber-iii/"/>
-    <hyperlink ref="D150" r:id="rId290" display="https://leetcode-cn.com/problems/recover-binary-search-tree/"/>
-    <hyperlink ref="G150" r:id="rId291" display="https://leetcode-cn.com/problems/recover-binary-search-tree/solution/python-3li-yong-zhong-xu-xu-lie-you-xu-xing-geng-j/"/>
-    <hyperlink ref="D151" r:id="rId292" display="https://leetcode-cn.com/problems/restore-ip-addresses/"/>
-    <hyperlink ref="G151" r:id="rId293" display="https://leetcode-cn.com/problems/restore-ip-addresses/solution/python-3bian-li-dian-hao-wei-zhi-by-acw_jpch89/"/>
-    <hyperlink ref="G153" r:id="rId294" display="https://leetcode-cn.com/problems/surrounded-regions/solution/python-3dfs-bing-cha-ji-by-acw_jpch89/"/>
-    <hyperlink ref="D153" r:id="rId295" display="https://leetcode-cn.com/problems/surrounded-regions/"/>
-    <hyperlink ref="D152" r:id="rId296" display="https://leetcode-cn.com/problems/count-binary-substrings/"/>
-    <hyperlink ref="G152" r:id="rId297" display="https://leetcode-cn.com/problems/count-binary-substrings/solution/python-3tong-ji-lian-xu-shu-liang-lei-jia-xiang-li/"/>
-    <hyperlink ref="G154" r:id="rId298" display="https://leetcode-cn.com/problems/valid-parentheses/solution/python-3li-yong-lie-biao-he-zi-dian-by-acw_jpch89/"/>
-    <hyperlink ref="D154" r:id="rId299" display="https://leetcode-cn.com/problems/valid-parentheses/"/>
-    <hyperlink ref="G155" r:id="rId300" display="https://leetcode-cn.com/problems/remove-boxes/solution/python-3dong-tai-gui-hua-zi-ding-xiang-xia-xing-sh/"/>
-    <hyperlink ref="D155" r:id="rId301" display="https://leetcode-cn.com/problems/remove-boxes/"/>
-    <hyperlink ref="D156" r:id="rId302" display="https://leetcode-cn.com/problems/flood-fill/"/>
-    <hyperlink ref="G156" r:id="rId303" display="https://leetcode-cn.com/problems/flood-fill/solution/python-3dfs-by-acw_jpch89-8/"/>
-    <hyperlink ref="D157" r:id="rId304" display="https://leetcode-cn.com/problems/convert-sorted-list-to-binary-search-tree/"/>
-    <hyperlink ref="G157" r:id="rId305" display="https://leetcode-cn.com/problems/convert-sorted-list-to-binary-search-tree/solution/python-3liang-chong-xing-shi-de-dfs-by-acw_jpch89/"/>
-    <hyperlink ref="G158" r:id="rId306" display="https://leetcode-cn.com/problems/24-game/solution/python-3dfs-by-acw_jpch89-9/"/>
-    <hyperlink ref="D158" r:id="rId307" display="https://leetcode-cn.com/problems/24-game/"/>
-    <hyperlink ref="G159" r:id="rId308" display="https://leetcode-cn.com/problems/bitwise-and-of-numbers-range/solution/python-3mo-ni-fa-chao-shi-gong-gong-qian-zhui-by-a/"/>
-    <hyperlink ref="D159" r:id="rId309" display="https://leetcode-cn.com/problems/bitwise-and-of-numbers-range/"/>
-    <hyperlink ref="G160" r:id="rId310" display="https://leetcode-cn.com/problems/repeated-substring-pattern/solution/python-3mei-ju-shuang-bei-zi-fu-chuan-by-acw_jpch8/"/>
-    <hyperlink ref="D160" r:id="rId311" display="https://leetcode-cn.com/problems/repeated-substring-pattern/"/>
-    <hyperlink ref="G161" r:id="rId312" display="https://leetcode-cn.com/problems/robot-return-to-origin/solution/python-3wei-fang-xiang-ji-shu-by-acw_jpch89/"/>
-    <hyperlink ref="D161" r:id="rId313" display="https://leetcode-cn.com/problems/robot-return-to-origin/"/>
-    <hyperlink ref="D162" r:id="rId314" display="https://leetcode-cn.com/problems/shortest-palindrome/"/>
-    <hyperlink ref="G162" r:id="rId315" display="https://leetcode-cn.com/problems/shortest-palindrome/solution/python-3bao-li-jie-fa-ni-xu-xun-zhao-xiang-tong-we/"/>
-    <hyperlink ref="G163" r:id="rId316" display="https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/solution/python-3yi-xing-jie-by-jpch89-3/"/>
-    <hyperlink ref="D163" r:id="rId317" display="https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/"/>
-    <hyperlink ref="D164" r:id="rId318" display="https://leetcode-cn.com/problems/keys-and-rooms/"/>
-    <hyperlink ref="G164" r:id="rId319" display="https://leetcode-cn.com/problems/keys-and-rooms/solution/python-3bfs-dfsji-qi-you-hua-by-jpch89/"/>
-    <hyperlink ref="G165" r:id="rId320" display="https://leetcode-cn.com/problems/predict-the-winner/solution/python-3dfsji-qi-you-hua-by-jpch89/"/>
-    <hyperlink ref="D165" r:id="rId321" display="https://leetcode-cn.com/problems/predict-the-winner/"/>
-    <hyperlink ref="G166" r:id="rId322" display="https://leetcode-cn.com/problems/permutation-sequence/solution/python-3chao-shi-de-dfs-zhao-gui-lu-by-jpch89/"/>
-    <hyperlink ref="D166" r:id="rId323" display="https://leetcode-cn.com/problems/permutation-sequence/"/>
-    <hyperlink ref="G167" r:id="rId324" display="https://leetcode-cn.com/problems/top-k-frequent-elements/solution/python-3counter-pei-he-sorted-huo-zhe-heapqnlarges/"/>
-    <hyperlink ref="D167" r:id="rId325" display="https://leetcode-cn.com/problems/top-k-frequent-elements/"/>
-    <hyperlink ref="G168" r:id="rId326" display="https://leetcode-cn.com/problems/combination-sum-ii/solution/python-3hui-su-by-jpch89/"/>
-    <hyperlink ref="D168" r:id="rId327" display="https://leetcode-cn.com/problems/combination-sum-ii/"/>
-    <hyperlink ref="D169" r:id="rId328" display="https://leetcode-cn.com/problems/combination-sum-iii/"/>
-    <hyperlink ref="G169" r:id="rId329" display="https://leetcode-cn.com/problems/combination-sum-iii/solution/python-3hui-su-suan-fa-by-jpch89/"/>
-    <hyperlink ref="G170" r:id="rId330" display="https://leetcode-cn.com/problems/average-of-levels-in-binary-tree/solution/pyton-3ceng-ci-bian-li-by-jpch89/"/>
-    <hyperlink ref="D170" r:id="rId331" display="https://leetcode-cn.com/problems/average-of-levels-in-binary-tree/"/>
-    <hyperlink ref="G171" r:id="rId332" display="https://leetcode-cn.com/problems/word-search/solution/python-3hui-su-suan-fa-by-jpch89-2/"/>
-    <hyperlink ref="D171" r:id="rId333" display="https://leetcode-cn.com/problems/word-search/"/>
-    <hyperlink ref="D172" r:id="rId334" display="https://leetcode-cn.com/problems/sudoku-solver/"/>
-    <hyperlink ref="G172" r:id="rId335" display="https://leetcode-cn.com/problems/sudoku-solver/solution/python-3hui-su-suan-fa-by-jpch89-3/"/>
-    <hyperlink ref="D173" r:id="rId336" display="https://leetcode-cn.com/problems/permutations-ii/"/>
-    <hyperlink ref="G173" r:id="rId337" display="https://leetcode-cn.com/problems/permutations-ii/solution/python-3hui-su-suan-fa-jian-zhi-you-hua-by-jpch89/"/>
-    <hyperlink ref="G174" r:id="rId338" display="https://leetcode-cn.com/problems/sum-of-left-leaves/solution/python-javascriptdfs-python-yi-xing-jie-by-jpch89/"/>
-    <hyperlink ref="D174" r:id="rId339" display="https://leetcode-cn.com/problems/sum-of-left-leaves/"/>
-    <hyperlink ref="G175" r:id="rId340" display="https://leetcode-cn.com/problems/subsets/solution/python-3hui-su-suan-fa-by-jpch89-4/"/>
-    <hyperlink ref="D175" r:id="rId341" display="https://leetcode-cn.com/problems/subsets/"/>
-    <hyperlink ref="G176" r:id="rId342" display="https://leetcode-cn.com/problems/convert-bst-to-greater-tree/solution/python-3-javascriptbao-cun-zhong-xu-xu-lie-fan-xia/"/>
-    <hyperlink ref="D176" r:id="rId343" display="https://leetcode-cn.com/problems/convert-bst-to-greater-tree/"/>
-    <hyperlink ref="G177" r:id="rId344" display="https://leetcode-cn.com/problems/binary-tree-cameras/solution/python-3hou-xu-bian-li-tan-xin-ce-lue-san-chong-zh/"/>
-    <hyperlink ref="D177" r:id="rId345" display="https://leetcode-cn.com/problems/binary-tree-cameras/"/>
-    <hyperlink ref="D178" r:id="rId346" display="https://leetcode-cn.com/problems/merge-two-binary-trees/"/>
-    <hyperlink ref="G178" r:id="rId347" display="https://leetcode-cn.com/problems/merge-two-binary-trees/solution/python-3dfs-bfs-by-jpch89/"/>
-    <hyperlink ref="G179" r:id="rId348" display="https://leetcode-cn.com/problems/find-mode-in-binary-search-tree/solution/python-3zhong-xu-xu-lie-by-jpch89/"/>
-    <hyperlink ref="D179" r:id="rId349" display="https://leetcode-cn.com/problems/find-mode-in-binary-search-tree/"/>
-    <hyperlink ref="D180" r:id="rId350" display="https://leetcode-cn.com/problems/path-sum-ii/"/>
-    <hyperlink ref="G180" r:id="rId351" display="https://leetcode-cn.com/problems/path-sum-ii/solution/python-3dfs-by-jpch89/"/>
-    <hyperlink ref="D181" r:id="rId352" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree"/>
-    <hyperlink ref="G181" r:id="rId353" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree/solution/python-3zi-dian-shu-by-jpch89/"/>
-    <hyperlink ref="G182" r:id="rId354" display="https://leetcode-cn.com/problems/insert-into-a-binary-search-tree/solution/python-3dfs-by-jpch89-2/"/>
-    <hyperlink ref="D182" r:id="rId355" display="https://leetcode-cn.com/problems/insert-into-a-binary-search-tree/"/>
-    <hyperlink ref="D183" r:id="rId356" display="https://leetcode-cn.com/problems/sort-colors/"/>
-    <hyperlink ref="G183" r:id="rId357" display="https://leetcode-cn.com/problems/sort-colors/solution/python-3pai-xu-by-jpch89/"/>
-    <hyperlink ref="D184" r:id="rId358" display="https://leetcode-cn.com/problems/linked-list-cycle/submissions/"/>
-    <hyperlink ref="G184" r:id="rId359" display="https://leetcode-cn.com/problems/linked-list-cycle/solution/python-3kuai-man-zhi-zhen-xiu-gai-lian-biao-shu-ju/"/>
-    <hyperlink ref="D185" r:id="rId360" display="https://leetcode-cn.com/problems/linked-list-cycle-ii/"/>
-    <hyperlink ref="G185" r:id="rId361" display="https://leetcode-cn.com/problems/linked-list-cycle-ii/solution/python-3ji-he-fa-jian-yao-jie-shi-zhi-zhen-fa-by-j/"/>
-    <hyperlink ref="D186" r:id="rId362" display="https://leetcode-cn.com/problems/minimum-absolute-difference-in-bst/"/>
-    <hyperlink ref="G186" r:id="rId363" display="https://leetcode-cn.com/problems/minimum-absolute-difference-in-bst/solution/python-3zhong-xu-xu-lie-o1-kong-jian-by-jpch89/"/>
-    <hyperlink ref="G187" r:id="rId364" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/solution/python-3jie-zhu-lie-biao-bao-cun-jie-dian-yi-ci-bi/"/>
-    <hyperlink ref="D187" r:id="rId365" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/"/>
-    <hyperlink ref="G188" r:id="rId366" display="https://leetcode-cn.com/problems/find-common-characters/solution/python-3yi-xing-jie-by-jpch89-4/"/>
-    <hyperlink ref="D188" r:id="rId367" display="https://leetcode-cn.com/problems/find-common-characters/"/>
-    <hyperlink ref="D189" r:id="rId147" display="https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/"/>
-    <hyperlink ref="G189" r:id="rId368" display="https://leetcode-cn.com/problems/populating-next-right-pointers-in-each-node/solution/python-3si-chong-xie-fa-by-jpch89/"/>
-    <hyperlink ref="G190" r:id="rId369" display="https://leetcode-cn.com/problems/squares-of-a-sorted-array/solution/python-3bao-li-yi-xing-jie-shuang-zhi-zhen-by-jpch/"/>
-    <hyperlink ref="D190" r:id="rId370" display="https://leetcode-cn.com/problems/squares-of-a-sorted-array/"/>
-    <hyperlink ref="G191" r:id="rId371" display="https://leetcode-cn.com/problems/n-queens-ii/solution/python-3ji-yu-ji-he-pan-zhong-de-hui-su-suan-fa-by/"/>
-    <hyperlink ref="D191" r:id="rId372" display="https://leetcode-cn.com/problems/n-queens-ii/"/>
-    <hyperlink ref="D192" r:id="rId373" display="https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list/"/>
-    <hyperlink ref="G192" r:id="rId374" display="https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list/solution/python-3jie-zhu-lie-biao-shuang-zhi-zhen-by-jpch89/"/>
-    <hyperlink ref="D193" r:id="rId375" display="https://leetcode-cn.com/problems/backspace-string-compare/"/>
-    <hyperlink ref="G193" r:id="rId376" display="https://leetcode-cn.com/problems/backspace-string-compare/solution/python-3lie-biao-mo-ni-zhan-shuang-zhi-zhen-ni-xu-/"/>
-    <hyperlink ref="D194" r:id="rId377" display="https://leetcode-cn.com/problems/reorder-list/"/>
-    <hyperlink ref="G194" r:id="rId378" display="https://leetcode-cn.com/problems/reorder-list/solution/python-3duo-chong-jie-fa-by-jpch89/"/>
-    <hyperlink ref="G195" r:id="rId379" display="https://leetcode-cn.com/problems/long-pressed-name/solution/python-3tong-shi-bian-li-by-jpch89/"/>
-    <hyperlink ref="D195" r:id="rId380" display="https://leetcode-cn.com/problems/long-pressed-name/"/>
-    <hyperlink ref="G196" r:id="rId381" display="https://leetcode-cn.com/problems/partition-labels/solution/python-3shuang-zhi-zhen-he-tan-xin-suan-fa-by-jpch/"/>
-    <hyperlink ref="D196" r:id="rId382" display="https://leetcode-cn.com/problems/partition-labels/"/>
-    <hyperlink ref="D197" r:id="rId383" display="https://leetcode-cn.com/problems/palindrome-linked-list/"/>
-    <hyperlink ref="G197" r:id="rId384" display="https://leetcode-cn.com/problems/palindrome-linked-list/solution/python-3liang-chong-jie-fa-by-jpch89/"/>
-    <hyperlink ref="D198" r:id="rId385" display="https://leetcode-cn.com/problems/video-stitching/"/>
-    <hyperlink ref="G198" r:id="rId386" display="https://leetcode-cn.com/problems/video-stitching/solution/python-3dong-tai-gui-hua-by-jpch89-3/"/>
-    <hyperlink ref="G199" r:id="rId387" display="https://leetcode-cn.com/problems/how-many-numbers-are-smaller-than-the-current-number/solution/python-3bao-li-pai-xu-zi-dian-by-jpch89/"/>
-    <hyperlink ref="D199" r:id="rId388" display="https://leetcode-cn.com/problems/how-many-numbers-are-smaller-than-the-current-number/"/>
-    <hyperlink ref="G200" r:id="rId389" display="https://leetcode-cn.com/problems/unique-number-of-occurrences/"/>
-    <hyperlink ref="D200" r:id="rId390" display="https://leetcode-cn.com/problems/unique-number-of-occurrences/solution/python-3counter-he-ji-he-by-jpch89/"/>
-    <hyperlink ref="D201" r:id="rId391" display="https://leetcode-cn.com/problems/sum-root-to-leaf-numbers/"/>
-    <hyperlink ref="G201" r:id="rId392" display="https://leetcode-cn.com/problems/sum-root-to-leaf-numbers/solution/python-3hui-su-by-jpch89-2/"/>
-    <hyperlink ref="G202" r:id="rId393" display="https://leetcode-cn.com/problems/island-perimeter/solution/python-3bian-li-by-jpch89/"/>
-    <hyperlink ref="D202" r:id="rId394" display="https://leetcode-cn.com/problems/island-perimeter/"/>
-    <hyperlink ref="D203" r:id="rId395" display="https://leetcode-cn.com/problems/intersection-of-two-arrays/"/>
-    <hyperlink ref="G203" r:id="rId396" display="https://leetcode-cn.com/problems/intersection-of-two-arrays/solution/python-3yi-xing-jie-by-jpch89-5/"/>
-    <hyperlink ref="D204" r:id="rId397" display="https://leetcode-cn.com/problems/valid-mountain-array/"/>
-    <hyperlink ref="G204" r:id="rId398" display="https://leetcode-cn.com/problems/valid-mountain-array/solution/python-3bian-li-shuang-zhi-zhen-by-jpch89/"/>
-    <hyperlink ref="D205" r:id="rId399" display="https://leetcode-cn.com/problems/sort-integers-by-the-number-of-1-bits/"/>
-    <hyperlink ref="G205" r:id="rId400" display="https://leetcode-cn.com/problems/sort-integers-by-the-number-of-1-bits/solution/python-3yi-xing-jie-by-jpch89-6/"/>
-    <hyperlink ref="D206" r:id="rId401" display="https://leetcode-cn.com/problems/k-closest-points-to-origin/"/>
-    <hyperlink ref="G207" r:id="rId402" display="https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/solution/python-3er-fen-bisect-by-jpch89/"/>
-    <hyperlink ref="D207" r:id="rId24" display="https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/"/>
-    <hyperlink ref="G206" r:id="rId403" display="https://leetcode-cn.com/problems/k-closest-points-to-origin/solution/python-3bu-zou-xin-de-yi-xing-jie-by-jpch89/"/>
-    <hyperlink ref="D208" r:id="rId404" display="https://leetcode-cn.com/problems/implement-queue-using-stacks/"/>
-    <hyperlink ref="G208" r:id="rId405" display="https://leetcode-cn.com/problems/implement-queue-using-stacks/solution/python-3bi-yao-shi-dao-teng-by-jpch89/"/>
-    <hyperlink ref="D209" r:id="rId406" display="https://leetcode-cn.com/problems/reverse-linked-list/"/>
-    <hyperlink ref="G209" r:id="rId407" display="https://leetcode-cn.com/problems/reverse-linked-list/solution/python-3die-dai-di-gui-ji-qi-ta-by-jpch89/"/>
-    <hyperlink ref="G210" r:id="rId408" display="https://leetcode-cn.com/problems/count-primes/solution/python-3ai-shi-shai-fa-by-jpch89/"/>
-    <hyperlink ref="D210" r:id="rId409" display="https://leetcode-cn.com/problems/count-primes/"/>
-    <hyperlink ref="D211" r:id="rId410" display="https://leetcode-cn.com/problems/task-scheduler/"/>
-    <hyperlink ref="G211" r:id="rId411" display="https://leetcode-cn.com/problems/task-scheduler/solution/python-3yi-xing-jie-by-jpch89-e0an/"/>
-    <hyperlink ref="G212" r:id="rId412" display="https://leetcode-cn.com/problems/pascals-triangle/solution/python-3die-dai-fa-yi-xing-jie-by-jpch89-q8p1/"/>
-    <hyperlink ref="D212" r:id="rId413" display="https://leetcode-cn.com/problems/pascals-triangle/"/>
-    <hyperlink ref="D213" r:id="rId414" display="https://leetcode-cn.com/problems/score-after-flipping-matrix/"/>
-    <hyperlink ref="G213" r:id="rId415" display="https://leetcode-cn.com/problems/score-after-flipping-matrix/solution/python-3tan-xin-by-jpch89-2ttx/"/>
-    <hyperlink ref="G214" r:id="rId416" display="https://leetcode-cn.com/problems/split-array-into-fibonacci-sequence/solution/python-3dai-fan-hui-zhi-de-hui-su-jian-z-i9ol/"/>
-    <hyperlink ref="D214" r:id="rId417" display="https://leetcode-cn.com/problems/split-array-into-fibonacci-sequence/"/>
-    <hyperlink ref="D215" r:id="rId418" display="https://leetcode-cn.com/problems/unique-paths/"/>
-    <hyperlink ref="G215" r:id="rId419" display="https://leetcode-cn.com/problems/unique-paths/solution/pythondong-tai-gui-hua-shu-xue-yi-xing-j-lpdi/"/>
-    <hyperlink ref="D216" r:id="rId420" display="https://leetcode-cn.com/problems/combine-two-tables/"/>
-    <hyperlink ref="G216" r:id="rId421" display="https://leetcode-cn.com/problems/combine-two-tables/solution/zuo-wai-lian-jie-by-jpch89-5dv0/"/>
-    <hyperlink ref="G217" r:id="rId422" display="https://leetcode-cn.com/problems/lemonade-change/solution/python-3zi-dian-mo-ni-zhao-ling-guo-chen-s6yf/"/>
-    <hyperlink ref="D217" r:id="rId423" display="https://leetcode-cn.com/problems/lemonade-change/"/>
-    <hyperlink ref="D218" r:id="rId424" display="https://leetcode-cn.com/problems/second-highest-salary/"/>
-    <hyperlink ref="G218" r:id="rId425" display="https://leetcode-cn.com/problems/second-highest-salary/solution/python-3limit-fen-ye-cha-xun-zi-cha-xun-bjvjl/"/>
-    <hyperlink ref="G219" r:id="rId426" display="https://leetcode-cn.com/problems/dota2-senate/solution/python-3tan-xin-mo-ni-by-jpch89-dwv0/"/>
-    <hyperlink ref="D219" r:id="rId427" display="https://leetcode-cn.com/problems/dota2-senate/"/>
-    <hyperlink ref="D220" r:id="rId428" display="https://leetcode-cn.com/problems/count-number-of-nice-subarrays/"/>
-    <hyperlink ref="G220" r:id="rId429" display="https://leetcode-cn.com/problems/count-number-of-nice-subarrays/solution/python-3qian-zhui-he-by-jpch89-h0jn/"/>
-    <hyperlink ref="G221" r:id="rId430" display="https://leetcode-cn.com/problems/3sum/solution/python-3pai-xu-zhi-zhen-by-jpch89-sdje/"/>
-    <hyperlink ref="D221" r:id="rId431" display="https://leetcode-cn.com/problems/3sum/"/>
-    <hyperlink ref="D222" r:id="rId432" display="https://leetcode-cn.com/problems/lru-cache/"/>
-    <hyperlink ref="G222" r:id="rId433" display="https://leetcode-cn.com/problems/lru-cache/solution/python-3ordereddict-by-jpch89-t9gm/"/>
-    <hyperlink ref="D223" r:id="rId434" display="https://leetcode-cn.com/problems/longest-increasing-subsequence/"/>
-    <hyperlink ref="D224" r:id="rId435" display="https://leetcode-cn.com/problems/russian-doll-envelopes/"/>
-    <hyperlink ref="G224" r:id="rId436" display="https://leetcode-cn.com/problems/russian-doll-envelopes/solution/python-3dong-tai-gui-hua-by-jpch89-8qan/"/>
-    <hyperlink ref="G223" r:id="rId437" display="https://leetcode-cn.com/problems/longest-increasing-subsequence/solution/python-3dong-tai-gui-hua-by-jpch89-xbq2/"/>
-    <hyperlink ref="D225" r:id="rId438" display="https://leetcode-cn.com/problems/decode-ways/"/>
-    <hyperlink ref="G225" r:id="rId439" display="https://leetcode-cn.com/problems/decode-ways/solution/python-3dong-tai-gui-hua-by-jpch89-snui/"/>
-    <hyperlink ref="G226" r:id="rId440" display="https://leetcode-cn.com/problems/employee-importance/solution/python-3bfs-dfs-by-jpch89-mq8p/"/>
-    <hyperlink ref="D226" r:id="rId441" display="https://leetcode-cn.com/problems/employee-importance/"/>
-    <hyperlink ref="G227" r:id="rId442" display="https://leetcode-cn.com/problems/brick-wall/solution/python3ha-xi-biao-qian-zhui-he-by-jpch89-9fcp/"/>
-    <hyperlink ref="D227" r:id="rId443" display="https://leetcode-cn.com/problems/brick-wall/"/>
-    <hyperlink ref="G228" r:id="rId444" display="https://leetcode-cn.com/problems/delete-and-earn/solution/python-3javascriptdong-tai-gui-hua-by-jp-xkek/"/>
-    <hyperlink ref="D228" r:id="rId445" display="https://leetcode-cn.com/problems/delete-and-earn/"/>
-    <hyperlink ref="D229" r:id="rId446" display="https://leetcode-cn.com/problems/decode-xored-array/"/>
-    <hyperlink ref="G229" r:id="rId447" display="https://leetcode-cn.com/problems/decode-xored-array/solution/python-3javascriptdie-dai-by-jpch89-h5p3/"/>
-    <hyperlink ref="G230" r:id="rId448" display="https://leetcode-cn.com/problems/xor-operation-in-an-array/solution/python3javascripthua-jian-by-jpch89-e2ii/"/>
-    <hyperlink ref="D230" r:id="rId449" display="https://leetcode-cn.com/problems/xor-operation-in-an-array/"/>
-    <hyperlink ref="G231" r:id="rId450" display="https://leetcode-cn.com/problems/minimum-number-of-days-to-make-m-bouquets/solution/python-3er-fen-cha-zhao-you-qu-zhao-xia-euntj/"/>
-    <hyperlink ref="D231" r:id="rId451" display="https://leetcode-cn.com/problems/minimum-number-of-days-to-make-m-bouquets/"/>
-    <hyperlink ref="D232" r:id="rId452" display="https://leetcode-cn.com/problems/leaf-similar-trees/"/>
-    <hyperlink ref="G232" r:id="rId453" display="https://leetcode-cn.com/problems/leaf-similar-trees/solution/python3dfs-by-jpch89-y8aa/"/>
-    <hyperlink ref="D233" r:id="rId454" display="https://leetcode-cn.com/problems/decode-xored-permutation/"/>
-    <hyperlink ref="G233" r:id="rId455" display="https://leetcode-cn.com/problems/decode-xored-permutation/solution/python3zhao-gui-lu-yi-huo-xing-zhi-by-jp-sfz4/"/>
-    <hyperlink ref="G234" r:id="rId456" display="https://leetcode-cn.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps/solution/python3dfs-by-jpch89-aokh/"/>
-    <hyperlink ref="D234" r:id="rId457" display="https://leetcode-cn.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps/"/>
-    <hyperlink ref="D235" r:id="rId458" display="https://leetcode-cn.com/problems/sort-characters-by-frequency/"/>
-    <hyperlink ref="G235" r:id="rId459" display="https://leetcode-cn.com/problems/sort-characters-by-frequency/solution/python3yi-xing-jie-by-jpch89-x98b/"/>
-    <hyperlink ref="G236" r:id="rId460" display="https://leetcode-cn.com/problems/find-majority-element-lcci/solution/python3javaha-xi-biao-tou-piao-suan-fa-b-t6to/"/>
-    <hyperlink ref="D236" r:id="rId461" display="https://leetcode-cn.com/problems/find-majority-element-lcci/"/>
-    <hyperlink ref="G237" r:id="rId462" display="https://leetcode-cn.com/problems/minimize-maximum-pair-sum-in-array/solution/shuang-zhi-zhen-yi-ci-bian-li-by-jpch89-ydv9/"/>
-    <hyperlink ref="D237" r:id="rId463" display="https://leetcode-cn.com/problems/minimize-maximum-pair-sum-in-array/"/>
-    <hyperlink ref="D238" r:id="rId464" display="https://leetcode-cn.com/problems/all-nodes-distance-k-in-binary-tree/"/>
-    <hyperlink ref="G238" r:id="rId465" display="https://leetcode-cn.com/problems/all-nodes-distance-k-in-binary-tree/solution/python3javalin-jie-biao-bfsdfs-ji-lu-yi-t0otq/"/>
-    <hyperlink ref="D239" r:id="rId466" display="https://leetcode-cn.com/problems/delete-node-in-a-linked-list/"/>
-    <hyperlink ref="D240" r:id="rId467" display="https://leetcode.cn/problems/middle-of-the-linked-list/"/>
-    <hyperlink ref="D241" r:id="rId468" display="https://leetcode.cn/problems/reverse-words-in-a-string-iii/"/>
+    <hyperlink ref="G34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D13" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D12" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D10" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G8" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D8" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G7" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D7" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G6" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D6" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G5" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D5" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D4" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G4" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G3" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D3" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G2" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D2" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D35" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D41" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D42" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D43" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G43" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D44" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D40" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D39" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D38" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D37" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D36" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G44" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D25" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D26" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G25" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G26" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D45" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G45" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D46" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G46" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D27" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G27" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D47" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G47" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D48" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G48" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G28" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D30" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G49" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D49" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G30" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D31" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D32" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D33" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D51" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D52" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D53" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D54" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D55" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G51" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G50" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D56" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G56" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G52" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G35" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G36" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G37" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G53" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="G54" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G38" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G39" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G40" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="G41" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G42" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D61" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D62" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D63" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D64" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D65" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D66" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D67" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D68" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D69" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D70" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G31" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G60" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D57" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D58" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D59" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G57" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G58" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G59" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G61" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G62" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D71" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G71" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D72" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G72" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D73" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G73" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D74" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G74" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D75" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G75" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D76" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G76" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D77" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G77" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D78" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G78" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D79" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G79" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G80" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D80" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D81" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G81" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D82" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G82" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G83" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D83" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D84" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G84" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D85" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G86" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G85" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D86" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D87" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="G87" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D88" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G88" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="G89" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D89" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D90" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G90" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D91" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G91" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D92" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="G92" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D93" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="G93" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D94" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G94" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D95" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="G95" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D98" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D97" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D99" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D96" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G96" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="G97" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D100" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="G100" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D101" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="G101" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D102" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="G102" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G103" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D103" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G104" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D104" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D105" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="G105" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D106" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G106" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D108" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="D107" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="G107" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G108" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D109" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="G109" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G99" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="G98" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="G110" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D110" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="G63" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="G64" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="G111" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D111" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="D112" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="G112" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="D113" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="G113" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="G114" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="D114" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D115" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="G115" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="D116" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="G116" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="G65" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="G66" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="G67" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="G68" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="G69" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="G70" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D117" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="G117" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="G118" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D118" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="D119" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="G119" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D120" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="G120" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="D121" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="G121" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="D122" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="G122" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="D123" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="G123" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="D124" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="G124" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="D125" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="G125" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="D126" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="G126" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="D127" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="G127" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="D128" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="G128" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="G129" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="D129" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="D130" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="G130" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="G131" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="D131" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="G132" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="D132" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="G133" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="D133" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="G134" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="D134" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="D135" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="G135" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="G136" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="D136" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="D137" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="G137" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="D139" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="G139" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="D140" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="D141" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="G141" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="D142" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="G142" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="D138" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="G138" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="D143" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="G143" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="G144" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="D144" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="G145" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="D145" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="G146" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="D146" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="D147" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="G147" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="D148" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="G148" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="G149" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="D149" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="D150" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="G150" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="D151" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="G151" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="G153" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="D153" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="D152" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="G152" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="G154" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="D154" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="G155" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="D155" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="D156" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="G156" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="D157" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="G157" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="G158" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="D158" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="G159" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="D159" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="G160" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="D160" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="G161" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="D161" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="D162" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="G162" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="G163" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="D163" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="D164" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="G164" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="G165" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="D165" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="G166" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="D166" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="G167" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="D167" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="G168" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="D168" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="D169" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="G169" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="G170" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="D170" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="G171" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="D171" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="D172" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="G172" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="D173" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="G173" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="G174" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="D174" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="G175" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="D175" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="G176" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="D176" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="G177" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="D177" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="D178" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="G178" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="G179" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="D179" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="D180" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="G180" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="D181" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="G181" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="G182" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="D182" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="D183" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="G183" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="D184" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="G184" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="D185" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="G185" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="D186" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="G186" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="G187" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="D187" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="G188" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="D188" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="D189" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="G189" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="G190" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="D190" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="G191" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="D191" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="D192" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="G192" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="D193" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="G193" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="D194" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="G194" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="G195" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="D195" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="G196" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="D196" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="D197" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="G197" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="D198" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="G198" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="G199" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="D199" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="G200" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="D200" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="D201" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="G201" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="G202" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="D202" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="D203" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="G203" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="D204" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="G204" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="D205" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="G205" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="D206" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="G207" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="D207" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="G206" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="D208" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="G208" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="D209" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="G209" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="G210" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="D210" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="D211" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="G211" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="G212" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="D212" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="D213" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="G213" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="G214" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="D214" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="D215" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="G215" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="D216" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="G216" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="G217" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="D217" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="D218" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="G218" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="G219" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="D219" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="D220" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="G220" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="G221" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="D221" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D222" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="G222" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="D223" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="D224" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="G224" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="G223" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="D225" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="G225" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="G226" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="D226" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="G227" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="D227" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="G228" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="D228" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="D229" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="G229" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="G230" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="D230" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="G231" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="D231" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="D232" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="G232" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="D233" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="G233" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="G234" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="D234" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="D235" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="G235" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="G236" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="D236" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="G237" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="D237" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="D238" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="G238" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="D239" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="D240" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="D241" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="D242" r:id="rId474" xr:uid="{91F61802-6979-4349-9C95-25164BA490E2}"/>
+    <hyperlink ref="D243" r:id="rId475" xr:uid="{E7895D2C-CC70-4A25-A453-9D1CE8761850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId476"/>
 </worksheet>
 </file>